--- a/pred_ohlcv/54_21/2019-10-24 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-236873.7018</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-241866.3248</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-271218.3248</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-352369.7538</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-352602.7538</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-353314.5072</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-353665.0756</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-353382.5897242938</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-359382.5897242938</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-359372.4697242938</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-360957.3849242938</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-399719.250224294</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-401276.271224294</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-403769.1860242939</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-402205.1554242939</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-402205.1554242939</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-402205.1554242939</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-402205.1554242939</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-351385.0607242939</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-351385.0607242939</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-339036.5000478735</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-377785.4541478734</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-377775.4541478734</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-378582.1349478734</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-403637.0388478734</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-405106.2092478734</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-405106.2092478734</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-405106.2092478734</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-447906.2092478734</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-508988.4279478734</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-600580.3561478733</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-573011.5954478733</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-607790.4200478734</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-646266.5776478734</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-568504.7790478732</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-618104.7790478732</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-526710.3739478732</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-559973.2393478733</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-555756.1924478733</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-556299.9553478733</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-544699.9553478733</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-504372.9553478733</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-504245.9553478733</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-494363.9553478733</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-526602.9554478732</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-373435.9431478732</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-348300.2013478732</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-348980.5620478732</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-349180.5620478732</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-343354.2228478732</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-351795.0764478732</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-400178.0764478732</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-388031.3383478732</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-311683.8464478732</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-312505.1150478732</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-287105.1150478732</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-263022.1377617769</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-266522.1377617769</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-267958.9832617769</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-605043.4265617768</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-624470.8279617768</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-574670.8279617768</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-236873.7018</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-241866.3248</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-271218.3248</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-352369.7538</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-352602.7538</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-353314.5072</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-353665.0756</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-353382.5897242938</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-359382.5897242938</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-359372.4697242938</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-360957.3849242938</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-508988.4279478734</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-600580.3561478733</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-573011.5954478733</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-607790.4200478734</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-646266.5776478734</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-568504.7790478732</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-618104.7790478732</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-526710.3739478732</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-559973.2393478733</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-555756.1924478733</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-556299.9553478733</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-544699.9553478733</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-504372.9553478733</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-504245.9553478733</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-494363.9553478733</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-526602.9554478732</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-373435.9431478732</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-392941.2729478732</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-348300.2013478732</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-348980.5620478732</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-349180.5620478732</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-343354.2228478732</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-351795.0764478732</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-400178.0764478732</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-388031.3383478732</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-312505.1150478732</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-263022.1377617769</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-266522.1377617769</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-568949.0700617768</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-754861.8540617764</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-754861.8540617764</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-764861.8540617764</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1058117.673561777</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1039117.673561777</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1039117.673561777</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1015632.176461776</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1016510.361161776</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1002769.43208293</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1016864.84408293</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-891064.8440829304</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-892767.0938829303</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-891915.9689829303</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-896489.8605829303</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-895639.1041829303</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-910940.4174829304</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-910940.4174829304</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-884078.0313829303</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-884078.0313829303</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-993311.4826829303</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
